--- a/PLT 1086 NACIONAL.xlsx
+++ b/PLT 1086 NACIONAL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5360023</v>
+        <v>5401479</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>5341560</v>
+        <v>5383016</v>
       </c>
     </row>
     <row r="43">
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5147345</v>
+        <v>5196903</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>5135236</v>
+        <v>5184203</v>
       </c>
     </row>
     <row r="44">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5576827</v>
+        <v>5642943</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>5568323</v>
+        <v>5633562</v>
       </c>
     </row>
     <row r="45">
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>559206</v>
+        <v>559212</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>558625</v>
+        <v>558631</v>
       </c>
     </row>
     <row r="86">
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>545473</v>
+        <v>548395</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>545086</v>
+        <v>548008</v>
       </c>
     </row>
     <row r="87">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>580640</v>
+        <v>601592</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>580232</v>
+        <v>601292</v>
       </c>
     </row>
     <row r="88">
@@ -5673,7 +5673,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>46074</v>
+        <v>46094</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>45841</v>
+        <v>45860</v>
       </c>
     </row>
     <row r="129">
@@ -5714,7 +5714,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>44249</v>
+        <v>44319</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>44230</v>
+        <v>44301</v>
       </c>
     </row>
     <row r="130">
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>73926</v>
+        <v>74147</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>3</v>
       </c>
       <c r="I130" t="n">
-        <v>73485</v>
+        <v>73706</v>
       </c>
     </row>
   </sheetData>
